--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Amelx-Lamp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Amelx-Lamp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Lamp2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.6785146666666666</v>
+        <v>0.154272</v>
       </c>
       <c r="H2">
-        <v>2.035544</v>
+        <v>0.462816</v>
       </c>
       <c r="I2">
-        <v>0.5273906889508921</v>
+        <v>0.09310241192892757</v>
       </c>
       <c r="J2">
-        <v>0.5273906889508921</v>
+        <v>0.09310241192892758</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.03826900000001</v>
+        <v>64.51124933333334</v>
       </c>
       <c r="N2">
-        <v>129.114807</v>
+        <v>193.533748</v>
       </c>
       <c r="O2">
-        <v>0.0472688546012849</v>
+        <v>0.07100564136251569</v>
       </c>
       <c r="P2">
-        <v>0.0472688546012849</v>
+        <v>0.07100564136251569</v>
       </c>
       <c r="Q2">
-        <v>29.20209674444533</v>
+        <v>9.952279457152001</v>
       </c>
       <c r="R2">
-        <v>262.818870700008</v>
+        <v>89.57051511436801</v>
       </c>
       <c r="S2">
-        <v>0.02492915379409119</v>
+        <v>0.006610796471410634</v>
       </c>
       <c r="T2">
-        <v>0.02492915379409119</v>
+        <v>0.006610796471410635</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.6785146666666666</v>
+        <v>0.154272</v>
       </c>
       <c r="H3">
-        <v>2.035544</v>
+        <v>0.462816</v>
       </c>
       <c r="I3">
-        <v>0.5273906889508921</v>
+        <v>0.09310241192892757</v>
       </c>
       <c r="J3">
-        <v>0.5273906889508921</v>
+        <v>0.09310241192892758</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>285.985504</v>
       </c>
       <c r="O3">
-        <v>0.1046991241419056</v>
+        <v>0.10492528740725</v>
       </c>
       <c r="P3">
-        <v>0.1046991241419056</v>
+        <v>0.10492528740725</v>
       </c>
       <c r="Q3">
-        <v>64.68178630601955</v>
+        <v>14.706518557696</v>
       </c>
       <c r="R3">
-        <v>582.136076754176</v>
+        <v>132.358667019264</v>
       </c>
       <c r="S3">
-        <v>0.05521734321375456</v>
+        <v>0.009768797329950906</v>
       </c>
       <c r="T3">
-        <v>0.05521734321375457</v>
+        <v>0.009768797329950908</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.6785146666666666</v>
+        <v>0.154272</v>
       </c>
       <c r="H4">
-        <v>2.035544</v>
+        <v>0.462816</v>
       </c>
       <c r="I4">
-        <v>0.5273906889508921</v>
+        <v>0.09310241192892757</v>
       </c>
       <c r="J4">
-        <v>0.5273906889508921</v>
+        <v>0.09310241192892758</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>224.8701733333334</v>
+        <v>250.6868743333333</v>
       </c>
       <c r="N4">
-        <v>674.6105200000001</v>
+        <v>752.060623</v>
       </c>
       <c r="O4">
-        <v>0.2469745130190776</v>
+        <v>0.2759236951252972</v>
       </c>
       <c r="P4">
-        <v>0.2469745130190777</v>
+        <v>0.2759236951252973</v>
       </c>
       <c r="Q4">
-        <v>152.5777107025422</v>
+        <v>38.673965477152</v>
       </c>
       <c r="R4">
-        <v>1373.19939632288</v>
+        <v>348.065689294368</v>
       </c>
       <c r="S4">
-        <v>0.1302520585744424</v>
+        <v>0.02568916152450725</v>
       </c>
       <c r="T4">
-        <v>0.1302520585744425</v>
+        <v>0.02568916152450726</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.6785146666666666</v>
+        <v>0.154272</v>
       </c>
       <c r="H5">
-        <v>2.035544</v>
+        <v>0.462816</v>
       </c>
       <c r="I5">
-        <v>0.5273906889508921</v>
+        <v>0.09310241192892757</v>
       </c>
       <c r="J5">
-        <v>0.5273906889508921</v>
+        <v>0.09310241192892758</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>71.45384633333333</v>
+        <v>25.06807633333333</v>
       </c>
       <c r="N5">
-        <v>214.361539</v>
+        <v>75.204229</v>
       </c>
       <c r="O5">
-        <v>0.07847763284886962</v>
+        <v>0.02759169689267063</v>
       </c>
       <c r="P5">
-        <v>0.07847763284886963</v>
+        <v>0.02759169689267063</v>
       </c>
       <c r="Q5">
-        <v>48.48248272691288</v>
+        <v>3.867302272096</v>
       </c>
       <c r="R5">
-        <v>436.3423445422159</v>
+        <v>34.805720448864</v>
       </c>
       <c r="S5">
-        <v>0.04138837285540051</v>
+        <v>0.002568853529919532</v>
       </c>
       <c r="T5">
-        <v>0.04138837285540052</v>
+        <v>0.002568853529919533</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.6785146666666666</v>
+        <v>0.154272</v>
       </c>
       <c r="H6">
-        <v>2.035544</v>
+        <v>0.462816</v>
       </c>
       <c r="I6">
-        <v>0.5273906889508921</v>
+        <v>0.09310241192892757</v>
       </c>
       <c r="J6">
-        <v>0.5273906889508921</v>
+        <v>0.09310241192892758</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>236.383077</v>
+        <v>255.6190846666667</v>
       </c>
       <c r="N6">
-        <v>709.1492310000001</v>
+        <v>766.857254</v>
       </c>
       <c r="O6">
-        <v>0.2596191147213038</v>
+        <v>0.2813524344796319</v>
       </c>
       <c r="P6">
-        <v>0.2596191147213038</v>
+        <v>0.2813524344796319</v>
       </c>
       <c r="Q6">
-        <v>160.389384696296</v>
+        <v>39.434867429696</v>
       </c>
       <c r="R6">
-        <v>1443.504462266664</v>
+        <v>354.913806867264</v>
       </c>
       <c r="S6">
-        <v>0.1369207037776891</v>
+        <v>0.0261945902521293</v>
       </c>
       <c r="T6">
-        <v>0.1369207037776891</v>
+        <v>0.0261945902521293</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.6785146666666666</v>
+        <v>0.154272</v>
       </c>
       <c r="H7">
-        <v>2.035544</v>
+        <v>0.462816</v>
       </c>
       <c r="I7">
-        <v>0.5273906889508921</v>
+        <v>0.09310241192892757</v>
       </c>
       <c r="J7">
-        <v>0.5273906889508921</v>
+        <v>0.09310241192892758</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>239.425644</v>
+        <v>217.323171</v>
       </c>
       <c r="N7">
-        <v>718.276932</v>
+        <v>651.969513</v>
       </c>
       <c r="O7">
-        <v>0.2629607606675584</v>
+        <v>0.2392012447326345</v>
       </c>
       <c r="P7">
-        <v>0.2629607606675585</v>
+        <v>0.2392012447326345</v>
       </c>
       <c r="Q7">
-        <v>162.453811030112</v>
+        <v>33.526880236512</v>
       </c>
       <c r="R7">
-        <v>1462.084299271008</v>
+        <v>301.741922128608</v>
       </c>
       <c r="S7">
-        <v>0.1386830567355143</v>
+        <v>0.02227021282100995</v>
       </c>
       <c r="T7">
-        <v>0.1386830567355143</v>
+        <v>0.02227021282100996</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5628626666666666</v>
+        <v>0.6785146666666666</v>
       </c>
       <c r="H8">
-        <v>1.688588</v>
+        <v>2.035544</v>
       </c>
       <c r="I8">
-        <v>0.4374975872170826</v>
+        <v>0.4094803463740599</v>
       </c>
       <c r="J8">
-        <v>0.4374975872170826</v>
+        <v>0.40948034637406</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>43.03826900000001</v>
+        <v>64.51124933333334</v>
       </c>
       <c r="N8">
-        <v>129.114807</v>
+        <v>193.533748</v>
       </c>
       <c r="O8">
-        <v>0.0472688546012849</v>
+        <v>0.07100564136251569</v>
       </c>
       <c r="P8">
-        <v>0.0472688546012849</v>
+        <v>0.07100564136251569</v>
       </c>
       <c r="Q8">
-        <v>24.22463485805734</v>
+        <v>43.77182883765689</v>
       </c>
       <c r="R8">
-        <v>218.021713722516</v>
+        <v>393.946459538912</v>
       </c>
       <c r="S8">
-        <v>0.02068000983857724</v>
+        <v>0.02907541461963521</v>
       </c>
       <c r="T8">
-        <v>0.02068000983857724</v>
+        <v>0.02907541461963521</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5628626666666666</v>
+        <v>0.6785146666666666</v>
       </c>
       <c r="H9">
-        <v>1.688588</v>
+        <v>2.035544</v>
       </c>
       <c r="I9">
-        <v>0.4374975872170826</v>
+        <v>0.4094803463740599</v>
       </c>
       <c r="J9">
-        <v>0.4374975872170826</v>
+        <v>0.40948034637406</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>285.985504</v>
       </c>
       <c r="O9">
-        <v>0.1046991241419056</v>
+        <v>0.10492528740725</v>
       </c>
       <c r="P9">
-        <v>0.1046991241419056</v>
+        <v>0.10492528740725</v>
       </c>
       <c r="Q9">
-        <v>53.65685446981689</v>
+        <v>64.68178630601955</v>
       </c>
       <c r="R9">
-        <v>482.911690228352</v>
+        <v>582.136076754176</v>
       </c>
       <c r="S9">
-        <v>0.04580561419582549</v>
+        <v>0.04296484303091852</v>
       </c>
       <c r="T9">
-        <v>0.0458056141958255</v>
+        <v>0.04296484303091853</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5628626666666666</v>
+        <v>0.6785146666666666</v>
       </c>
       <c r="H10">
-        <v>1.688588</v>
+        <v>2.035544</v>
       </c>
       <c r="I10">
-        <v>0.4374975872170826</v>
+        <v>0.4094803463740599</v>
       </c>
       <c r="J10">
-        <v>0.4374975872170826</v>
+        <v>0.40948034637406</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>224.8701733333334</v>
+        <v>250.6868743333333</v>
       </c>
       <c r="N10">
-        <v>674.6105200000001</v>
+        <v>752.060623</v>
       </c>
       <c r="O10">
-        <v>0.2469745130190776</v>
+        <v>0.2759236951252972</v>
       </c>
       <c r="P10">
-        <v>0.2469745130190777</v>
+        <v>0.2759236951252973</v>
       </c>
       <c r="Q10">
-        <v>126.5710254161956</v>
+        <v>170.0947209759902</v>
       </c>
       <c r="R10">
-        <v>1139.13922874576</v>
+        <v>1530.852488783912</v>
       </c>
       <c r="S10">
-        <v>0.1080507535499604</v>
+        <v>0.1129853302527172</v>
       </c>
       <c r="T10">
-        <v>0.1080507535499604</v>
+        <v>0.1129853302527173</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5628626666666666</v>
+        <v>0.6785146666666666</v>
       </c>
       <c r="H11">
-        <v>1.688588</v>
+        <v>2.035544</v>
       </c>
       <c r="I11">
-        <v>0.4374975872170826</v>
+        <v>0.4094803463740599</v>
       </c>
       <c r="J11">
-        <v>0.4374975872170826</v>
+        <v>0.40948034637406</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>71.45384633333333</v>
+        <v>25.06807633333333</v>
       </c>
       <c r="N11">
-        <v>214.361539</v>
+        <v>75.204229</v>
       </c>
       <c r="O11">
-        <v>0.07847763284886962</v>
+        <v>0.02759169689267063</v>
       </c>
       <c r="P11">
-        <v>0.07847763284886963</v>
+        <v>0.02759169689267063</v>
       </c>
       <c r="Q11">
-        <v>40.21870249077022</v>
+        <v>17.00905745728622</v>
       </c>
       <c r="R11">
-        <v>361.968322416932</v>
+        <v>153.081517115576</v>
       </c>
       <c r="S11">
-        <v>0.03433377502188852</v>
+        <v>0.01129825760065884</v>
       </c>
       <c r="T11">
-        <v>0.03433377502188853</v>
+        <v>0.01129825760065885</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5628626666666666</v>
+        <v>0.6785146666666666</v>
       </c>
       <c r="H12">
-        <v>1.688588</v>
+        <v>2.035544</v>
       </c>
       <c r="I12">
-        <v>0.4374975872170826</v>
+        <v>0.4094803463740599</v>
       </c>
       <c r="J12">
-        <v>0.4374975872170826</v>
+        <v>0.40948034637406</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>236.383077</v>
+        <v>255.6190846666667</v>
       </c>
       <c r="N12">
-        <v>709.1492310000001</v>
+        <v>766.857254</v>
       </c>
       <c r="O12">
-        <v>0.2596191147213038</v>
+        <v>0.2813524344796319</v>
       </c>
       <c r="P12">
-        <v>0.2596191147213038</v>
+        <v>0.2813524344796319</v>
       </c>
       <c r="Q12">
-        <v>133.051209075092</v>
+        <v>173.4412980262418</v>
       </c>
       <c r="R12">
-        <v>1197.460881675828</v>
+        <v>1560.971682236176</v>
       </c>
       <c r="S12">
-        <v>0.1135827362860054</v>
+        <v>0.1152082923239047</v>
       </c>
       <c r="T12">
-        <v>0.1135827362860054</v>
+        <v>0.1152082923239047</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,14 +1210,14 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5628626666666666</v>
+        <v>0.6785146666666666</v>
       </c>
       <c r="H13">
-        <v>1.688588</v>
+        <v>2.035544</v>
       </c>
       <c r="I13">
-        <v>0.4374975872170826</v>
+        <v>0.4094803463740599</v>
       </c>
       <c r="J13">
-        <v>0.4374975872170826</v>
+        <v>0.40948034637406</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>239.425644</v>
+        <v>217.323171</v>
       </c>
       <c r="N13">
-        <v>718.276932</v>
+        <v>651.969513</v>
       </c>
       <c r="O13">
-        <v>0.2629607606675584</v>
+        <v>0.2392012447326345</v>
       </c>
       <c r="P13">
-        <v>0.2629607606675585</v>
+        <v>0.2392012447326345</v>
       </c>
       <c r="Q13">
-        <v>134.763756450224</v>
+        <v>147.456958930008</v>
       </c>
       <c r="R13">
-        <v>1212.873808052016</v>
+        <v>1327.112630370072</v>
       </c>
       <c r="S13">
-        <v>0.1150446983248255</v>
+        <v>0.09794820854622543</v>
       </c>
       <c r="T13">
-        <v>0.1150446983248255</v>
+        <v>0.09794820854622546</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.045173</v>
+        <v>0.4876906666666667</v>
       </c>
       <c r="H14">
-        <v>0.135519</v>
+        <v>1.463072</v>
       </c>
       <c r="I14">
-        <v>0.03511172383202523</v>
+        <v>0.2943189777917788</v>
       </c>
       <c r="J14">
-        <v>0.03511172383202523</v>
+        <v>0.2943189777917788</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>43.03826900000001</v>
+        <v>64.51124933333334</v>
       </c>
       <c r="N14">
-        <v>129.114807</v>
+        <v>193.533748</v>
       </c>
       <c r="O14">
-        <v>0.0472688546012849</v>
+        <v>0.07100564136251569</v>
       </c>
       <c r="P14">
-        <v>0.0472688546012849</v>
+        <v>0.07100564136251569</v>
       </c>
       <c r="Q14">
-        <v>1.944167725537</v>
+        <v>31.46153419487289</v>
       </c>
       <c r="R14">
-        <v>17.497509529833</v>
+        <v>283.153807753856</v>
       </c>
       <c r="S14">
-        <v>0.001659690968616471</v>
+        <v>0.02089830778326527</v>
       </c>
       <c r="T14">
-        <v>0.001659690968616471</v>
+        <v>0.02089830778326527</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.045173</v>
+        <v>0.4876906666666667</v>
       </c>
       <c r="H15">
-        <v>0.135519</v>
+        <v>1.463072</v>
       </c>
       <c r="I15">
-        <v>0.03511172383202523</v>
+        <v>0.2943189777917788</v>
       </c>
       <c r="J15">
-        <v>0.03511172383202523</v>
+        <v>0.2943189777917788</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>285.985504</v>
       </c>
       <c r="O15">
-        <v>0.1046991241419056</v>
+        <v>0.10492528740725</v>
       </c>
       <c r="P15">
-        <v>0.1046991241419056</v>
+        <v>0.10492528740725</v>
       </c>
       <c r="Q15">
-        <v>4.306274390730667</v>
+        <v>46.49082036758755</v>
       </c>
       <c r="R15">
-        <v>38.756469516576</v>
+        <v>418.417383308288</v>
       </c>
       <c r="S15">
-        <v>0.003676166732325514</v>
+        <v>0.03088150333421043</v>
       </c>
       <c r="T15">
-        <v>0.003676166732325515</v>
+        <v>0.03088150333421043</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.045173</v>
+        <v>0.4876906666666667</v>
       </c>
       <c r="H16">
-        <v>0.135519</v>
+        <v>1.463072</v>
       </c>
       <c r="I16">
-        <v>0.03511172383202523</v>
+        <v>0.2943189777917788</v>
       </c>
       <c r="J16">
-        <v>0.03511172383202523</v>
+        <v>0.2943189777917788</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>224.8701733333334</v>
+        <v>250.6868743333333</v>
       </c>
       <c r="N16">
-        <v>674.6105200000001</v>
+        <v>752.060623</v>
       </c>
       <c r="O16">
-        <v>0.2469745130190776</v>
+        <v>0.2759236951252972</v>
       </c>
       <c r="P16">
-        <v>0.2469745130190777</v>
+        <v>0.2759236951252973</v>
       </c>
       <c r="Q16">
-        <v>10.15806033998667</v>
+        <v>122.2576488682062</v>
       </c>
       <c r="R16">
-        <v>91.42254305988001</v>
+        <v>1100.318839813856</v>
       </c>
       <c r="S16">
-        <v>0.008671700894674774</v>
+        <v>0.08120957989780792</v>
       </c>
       <c r="T16">
-        <v>0.008671700894674776</v>
+        <v>0.08120957989780793</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.045173</v>
+        <v>0.4876906666666667</v>
       </c>
       <c r="H17">
-        <v>0.135519</v>
+        <v>1.463072</v>
       </c>
       <c r="I17">
-        <v>0.03511172383202523</v>
+        <v>0.2943189777917788</v>
       </c>
       <c r="J17">
-        <v>0.03511172383202523</v>
+        <v>0.2943189777917788</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>71.45384633333333</v>
+        <v>25.06807633333333</v>
       </c>
       <c r="N17">
-        <v>214.361539</v>
+        <v>75.204229</v>
       </c>
       <c r="O17">
-        <v>0.07847763284886962</v>
+        <v>0.02759169689267063</v>
       </c>
       <c r="P17">
-        <v>0.07847763284886963</v>
+        <v>0.02759169689267063</v>
       </c>
       <c r="Q17">
-        <v>3.227784600415666</v>
+        <v>12.22546685905422</v>
       </c>
       <c r="R17">
-        <v>29.050061403741</v>
+        <v>110.029201731488</v>
       </c>
       <c r="S17">
-        <v>0.002755484971580581</v>
+        <v>0.008120760024991422</v>
       </c>
       <c r="T17">
-        <v>0.002755484971580582</v>
+        <v>0.008120760024991422</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.045173</v>
+        <v>0.4876906666666667</v>
       </c>
       <c r="H18">
-        <v>0.135519</v>
+        <v>1.463072</v>
       </c>
       <c r="I18">
-        <v>0.03511172383202523</v>
+        <v>0.2943189777917788</v>
       </c>
       <c r="J18">
-        <v>0.03511172383202523</v>
+        <v>0.2943189777917788</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>236.383077</v>
+        <v>255.6190846666667</v>
       </c>
       <c r="N18">
-        <v>709.1492310000001</v>
+        <v>766.857254</v>
       </c>
       <c r="O18">
-        <v>0.2596191147213038</v>
+        <v>0.2813524344796319</v>
       </c>
       <c r="P18">
-        <v>0.2596191147213038</v>
+        <v>0.2813524344796319</v>
       </c>
       <c r="Q18">
-        <v>10.678132737321</v>
+        <v>124.6630418138098</v>
       </c>
       <c r="R18">
-        <v>96.10319463588901</v>
+        <v>1121.967376324288</v>
       </c>
       <c r="S18">
-        <v>0.009115674657609296</v>
+        <v>0.0828073609152737</v>
       </c>
       <c r="T18">
-        <v>0.009115674657609296</v>
+        <v>0.0828073609152737</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4876906666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.463072</v>
+      </c>
+      <c r="I19">
+        <v>0.2943189777917788</v>
+      </c>
+      <c r="J19">
+        <v>0.2943189777917788</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>217.323171</v>
+      </c>
+      <c r="N19">
+        <v>651.969513</v>
+      </c>
+      <c r="O19">
+        <v>0.2392012447326345</v>
+      </c>
+      <c r="P19">
+        <v>0.2392012447326345</v>
+      </c>
+      <c r="Q19">
+        <v>105.986482147104</v>
+      </c>
+      <c r="R19">
+        <v>953.878339323936</v>
+      </c>
+      <c r="S19">
+        <v>0.0704014658362301</v>
+      </c>
+      <c r="T19">
+        <v>0.07040146583623011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.3365366666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.00961</v>
+      </c>
+      <c r="I20">
+        <v>0.2030982639052336</v>
+      </c>
+      <c r="J20">
+        <v>0.2030982639052335</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>64.51124933333334</v>
+      </c>
+      <c r="N20">
+        <v>193.533748</v>
+      </c>
+      <c r="O20">
+        <v>0.07100564136251569</v>
+      </c>
+      <c r="P20">
+        <v>0.07100564136251569</v>
+      </c>
+      <c r="Q20">
+        <v>21.71040081314222</v>
+      </c>
+      <c r="R20">
+        <v>195.39360731828</v>
+      </c>
+      <c r="S20">
+        <v>0.01442112248820458</v>
+      </c>
+      <c r="T20">
+        <v>0.01442112248820458</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.3365366666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.00961</v>
+      </c>
+      <c r="I21">
+        <v>0.2030982639052336</v>
+      </c>
+      <c r="J21">
+        <v>0.2030982639052335</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>95.32850133333334</v>
+      </c>
+      <c r="N21">
+        <v>285.985504</v>
+      </c>
+      <c r="O21">
+        <v>0.10492528740725</v>
+      </c>
+      <c r="P21">
+        <v>0.10492528740725</v>
+      </c>
+      <c r="Q21">
+        <v>32.08153607704889</v>
+      </c>
+      <c r="R21">
+        <v>288.7338246934399</v>
+      </c>
+      <c r="S21">
+        <v>0.02131014371217014</v>
+      </c>
+      <c r="T21">
+        <v>0.02131014371217014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.3365366666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.00961</v>
+      </c>
+      <c r="I22">
+        <v>0.2030982639052336</v>
+      </c>
+      <c r="J22">
+        <v>0.2030982639052335</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>250.6868743333333</v>
+      </c>
+      <c r="N22">
+        <v>752.060623</v>
+      </c>
+      <c r="O22">
+        <v>0.2759236951252972</v>
+      </c>
+      <c r="P22">
+        <v>0.2759236951252973</v>
+      </c>
+      <c r="Q22">
+        <v>84.36532506522555</v>
+      </c>
+      <c r="R22">
+        <v>759.2879255870299</v>
+      </c>
+      <c r="S22">
+        <v>0.05603962345026482</v>
+      </c>
+      <c r="T22">
+        <v>0.05603962345026483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.045173</v>
-      </c>
-      <c r="H19">
-        <v>0.135519</v>
-      </c>
-      <c r="I19">
-        <v>0.03511172383202523</v>
-      </c>
-      <c r="J19">
-        <v>0.03511172383202523</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>239.425644</v>
-      </c>
-      <c r="N19">
-        <v>718.276932</v>
-      </c>
-      <c r="O19">
-        <v>0.2629607606675584</v>
-      </c>
-      <c r="P19">
-        <v>0.2629607606675585</v>
-      </c>
-      <c r="Q19">
-        <v>10.815574616412</v>
-      </c>
-      <c r="R19">
-        <v>97.340171547708</v>
-      </c>
-      <c r="S19">
-        <v>0.009233005607218594</v>
-      </c>
-      <c r="T19">
-        <v>0.009233005607218596</v>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.3365366666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.00961</v>
+      </c>
+      <c r="I23">
+        <v>0.2030982639052336</v>
+      </c>
+      <c r="J23">
+        <v>0.2030982639052335</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>25.06807633333333</v>
+      </c>
+      <c r="N23">
+        <v>75.204229</v>
+      </c>
+      <c r="O23">
+        <v>0.02759169689267063</v>
+      </c>
+      <c r="P23">
+        <v>0.02759169689267063</v>
+      </c>
+      <c r="Q23">
+        <v>8.436326848965555</v>
+      </c>
+      <c r="R23">
+        <v>75.92694164068999</v>
+      </c>
+      <c r="S23">
+        <v>0.005603825737100833</v>
+      </c>
+      <c r="T23">
+        <v>0.005603825737100832</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.3365366666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.00961</v>
+      </c>
+      <c r="I24">
+        <v>0.2030982639052336</v>
+      </c>
+      <c r="J24">
+        <v>0.2030982639052335</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>255.6190846666667</v>
+      </c>
+      <c r="N24">
+        <v>766.857254</v>
+      </c>
+      <c r="O24">
+        <v>0.2813524344796319</v>
+      </c>
+      <c r="P24">
+        <v>0.2813524344796319</v>
+      </c>
+      <c r="Q24">
+        <v>86.02519469010444</v>
+      </c>
+      <c r="R24">
+        <v>774.2267522109399</v>
+      </c>
+      <c r="S24">
+        <v>0.05714219098832422</v>
+      </c>
+      <c r="T24">
+        <v>0.05714219098832421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.3365366666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.00961</v>
+      </c>
+      <c r="I25">
+        <v>0.2030982639052336</v>
+      </c>
+      <c r="J25">
+        <v>0.2030982639052335</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>217.323171</v>
+      </c>
+      <c r="N25">
+        <v>651.969513</v>
+      </c>
+      <c r="O25">
+        <v>0.2392012447326345</v>
+      </c>
+      <c r="P25">
+        <v>0.2392012447326345</v>
+      </c>
+      <c r="Q25">
+        <v>73.13721555776999</v>
+      </c>
+      <c r="R25">
+        <v>658.2349400199299</v>
+      </c>
+      <c r="S25">
+        <v>0.04858135752916895</v>
+      </c>
+      <c r="T25">
+        <v>0.04858135752916895</v>
       </c>
     </row>
   </sheetData>
